--- a/public/uploads/cotizacion-Internet-${NODO_CIU_NOMBRE}.xlsx
+++ b/public/uploads/cotizacion-Internet-${NODO_CIU_NOMBRE}.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CR\NED\nedetel-master\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A28EF3D-1367-479F-86E6-6D87CB83B9F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CE517C-189D-4FDA-AC85-F3E65958EB37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotizacion_Internet" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="552">
   <si>
     <t>Empresa:</t>
   </si>
@@ -1688,6 +1689,12 @@
   </si>
   <si>
     <t>KIT TARIFADOR DE 1 LINEA SIN PC</t>
+  </si>
+  <si>
+    <t>RUC: ${CLI_RUC}</t>
+  </si>
+  <si>
+    <t>RUC: 0992182326001</t>
   </si>
   <si>
     <t>${PRECIO_CLIENTE}</t>
@@ -1705,7 +1712,7 @@
     <numFmt numFmtId="168" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="169" formatCode="&quot;VERDADERO&quot;;&quot;VERDADERO&quot;;&quot;FALSO&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1876,10 +1883,24 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000090"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2133,45 +2154,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2315,14 +2299,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2465,8 +2493,8 @@
       <xdr:rowOff>286200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1071608</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
@@ -2563,8 +2591,8 @@
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1071608</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
@@ -2667,44 +2695,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2754,9 +2782,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2812,142 +2840,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -2955,3101 +3007,4491 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AMS24" sqref="AMS24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23" style="12" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="12" customWidth="1"/>
-    <col min="11" max="12" width="11.5703125" style="12" hidden="1"/>
-    <col min="13" max="13" width="21.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="49.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="17" max="257" width="11.5703125" style="12" hidden="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" style="1" hidden="1"/>
+    <col min="13" max="13" width="21.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="49.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="49.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="257" width="11.5703125" style="1" hidden="1"/>
     <col min="258" max="1025" width="11.5703125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="J4" s="15"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="13"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="13"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="13"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24" t="s">
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24" t="s">
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="7" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="35" t="s">
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="36" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="35" t="s">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="38" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="13"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="43" t="s">
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="48" t="s">
-        <v>549</v>
-      </c>
-      <c r="I24" s="49" t="s">
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="I24" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="45"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="50">
+      <c r="A25" s="2"/>
+      <c r="B25" s="39">
         <v>1</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="52" t="str">
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="41" t="str">
         <f>D36</f>
         <v>${NODO_NOD_COSTO_INSTALACION_CLIENTE}</v>
       </c>
-      <c r="I25" s="53" t="str">
+      <c r="I25" s="42" t="str">
         <f>D36</f>
         <v>${NODO_NOD_COSTO_INSTALACION_CLIENTE}</v>
       </c>
-      <c r="J25" s="45"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="54" t="s">
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="H26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="56" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="H27" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="45"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="45"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="59" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="H29" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="57" t="s">
+      <c r="I29" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="45"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="45"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="45"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="C32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="45"/>
+      <c r="A32" s="2"/>
+      <c r="C32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="66" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="45"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="34"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="45"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="56" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="67" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="45"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="45"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="63" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="68" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="45"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="34"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="63" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="45"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="34"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="45"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="45"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="34"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="69" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71" t="s">
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="45"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="73" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="34"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="74" t="s">
+      <c r="E43" s="63"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="13"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="75"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="75"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="75"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="75"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="75"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
     </row>
     <row r="49" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="75"/>
-      <c r="M49" s="12" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="M49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="50" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="75"/>
-      <c r="M50" s="12" t="s">
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="M50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N50" s="12" t="s">
+      <c r="N50" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="75"/>
-      <c r="M51" s="12" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="M51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="N51" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="75"/>
-      <c r="M52" s="12" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="M52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="N52" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="75"/>
-      <c r="M53" s="12" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="M53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N53" s="12" t="s">
+      <c r="N53" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="54" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="75"/>
-      <c r="M54" s="12" t="s">
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="M54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N54" s="12" t="s">
+      <c r="N54" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="75"/>
-      <c r="M55" s="12" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="M55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N55" s="12" t="s">
+      <c r="N55" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="75"/>
-      <c r="M56" s="12" t="s">
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="M56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N56" s="12" t="s">
+      <c r="N56" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="57" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="75"/>
-      <c r="M57" s="12" t="s">
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="M57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="12" t="s">
+      <c r="N57" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="75"/>
-      <c r="M58" s="12" t="s">
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="M58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N58" s="12" t="s">
+      <c r="N58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="75"/>
-      <c r="M59" s="12" t="s">
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="M59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N59" s="12" t="s">
+      <c r="N59" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="75"/>
-      <c r="E60" s="12" t="s">
+      <c r="D60" s="65"/>
+      <c r="E60" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="M60" s="12" t="s">
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="M60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N60" s="12" t="s">
+      <c r="N60" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="75"/>
-      <c r="M61" s="12" t="s">
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="M61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N61" s="12" t="s">
+      <c r="N61" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="62" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D62" s="75"/>
-      <c r="M62" s="12" t="s">
+      <c r="C62" s="64"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="M62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N62" s="12" t="s">
+      <c r="N62" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="75"/>
-      <c r="M63" s="12" t="s">
+      <c r="C63" s="64"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="M63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N63" s="12" t="s">
+      <c r="N63" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="64" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="75"/>
-      <c r="M64" s="12" t="s">
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="M64" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N64" s="12" t="s">
+      <c r="N64" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="75"/>
-      <c r="M65" s="12" t="s">
+    <row r="65" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="64"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="M65" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N65" s="12" t="s">
+      <c r="N65" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="75"/>
-      <c r="M66" s="12" t="s">
+    <row r="66" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="M66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N66" s="12" t="s">
+      <c r="N66" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D67" s="75"/>
-      <c r="M67" s="12" t="s">
+    <row r="67" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="64"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="M67" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N67" s="12" t="s">
+      <c r="N67" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="75"/>
-      <c r="M68" s="12" t="s">
+    <row r="68" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="M68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N68" s="12" t="s">
+      <c r="N68" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="75"/>
-      <c r="M69" s="12" t="s">
+    <row r="69" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="M69" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N69" s="12" t="s">
+      <c r="N69" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="75"/>
-      <c r="M70" s="12" t="s">
+    <row r="70" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="M70" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N70" s="12" t="s">
+      <c r="N70" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="75"/>
-      <c r="M71" s="12" t="s">
+    <row r="71" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="64"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="M71" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N71" s="12" t="s">
+      <c r="N71" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="75"/>
-      <c r="M72" s="12" t="s">
+    <row r="72" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="M72" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N72" s="12" t="s">
+      <c r="N72" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="75"/>
-      <c r="M73" s="12" t="s">
+    <row r="73" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="M73" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N73" s="12" t="s">
+      <c r="N73" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="75"/>
-      <c r="M74" s="12" t="s">
+    <row r="74" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="M74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N74" s="12" t="s">
+      <c r="N74" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="75"/>
-      <c r="M75" s="12" t="s">
+    <row r="75" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="64"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="68"/>
+      <c r="M75" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N75" s="12" t="s">
+      <c r="N75" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="75"/>
-      <c r="M76" s="12" t="s">
+    <row r="76" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="M76" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N76" s="12" t="s">
+      <c r="N76" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="75"/>
-      <c r="M77" s="12" t="s">
+    <row r="77" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="64"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="M77" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N77" s="12" t="s">
+      <c r="N77" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="75"/>
-      <c r="M78" s="12" t="s">
+    <row r="78" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="M78" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N78" s="12" t="s">
+      <c r="N78" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D79" s="75"/>
-      <c r="M79" s="12" t="s">
+    <row r="79" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+      <c r="M79" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N79" s="12" t="s">
+      <c r="N79" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="75"/>
-      <c r="M80" s="12" t="s">
+    <row r="80" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+      <c r="M80" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N80" s="12" t="s">
+      <c r="N80" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D81" s="75"/>
-      <c r="M81" s="12" t="s">
+    <row r="81" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="64"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="M81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N81" s="12" t="s">
+      <c r="N81" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D82" s="75"/>
-      <c r="M82" s="12" t="s">
+    <row r="82" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="64"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="68"/>
+      <c r="M82" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N82" s="12" t="s">
+      <c r="N82" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D83" s="75"/>
-      <c r="M83" s="12" t="s">
+    <row r="83" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="64"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="M83" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N83" s="12" t="s">
+      <c r="N83" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D84" s="75"/>
-      <c r="M84" s="12" t="s">
+    <row r="84" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="M84" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N84" s="12" t="s">
+      <c r="N84" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D85" s="75"/>
-      <c r="M85" s="12" t="s">
+    <row r="85" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="64"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="M85" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N85" s="12" t="s">
+      <c r="N85" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D86" s="75"/>
-      <c r="M86" s="12" t="s">
+    <row r="86" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="M86" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N86" s="12" t="s">
+      <c r="N86" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D87" s="75"/>
-      <c r="M87" s="12" t="s">
+    <row r="87" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="64"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
+      <c r="M87" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N87" s="12" t="s">
+      <c r="N87" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D88" s="75"/>
-      <c r="M88" s="12" t="s">
+    <row r="88" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="64"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+      <c r="M88" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N88" s="12" t="s">
+      <c r="N88" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D89" s="75"/>
-      <c r="M89" s="12" t="s">
+    <row r="89" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="64"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="M89" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N89" s="12" t="s">
+      <c r="N89" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D90" s="75"/>
-      <c r="M90" s="12" t="s">
+    <row r="90" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="64"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="68"/>
+      <c r="M90" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="12" t="s">
+      <c r="N90" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D91" s="75"/>
-      <c r="M91" s="12" t="s">
+    <row r="91" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="64"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
+      <c r="M91" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N91" s="12" t="s">
+      <c r="N91" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D92" s="75"/>
-      <c r="M92" s="12" t="s">
+    <row r="92" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="M92" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N92" s="12" t="s">
+      <c r="N92" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D93" s="75"/>
-      <c r="M93" s="12" t="s">
+    <row r="93" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="64"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
+      <c r="M93" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N93" s="12" t="s">
+      <c r="N93" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D94" s="75"/>
-      <c r="M94" s="12" t="s">
+    <row r="94" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="68"/>
+      <c r="M94" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N94" s="12" t="s">
+      <c r="N94" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D95" s="75"/>
-      <c r="M95" s="12" t="s">
+    <row r="95" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="64"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
+      <c r="M95" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N95" s="12" t="s">
+      <c r="N95" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D96" s="75"/>
-      <c r="M96" s="12" t="s">
+    <row r="96" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="68"/>
+      <c r="M96" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N96" s="12" t="s">
+      <c r="N96" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D97" s="75"/>
-      <c r="M97" s="12" t="s">
+    <row r="97" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="64"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="68"/>
+      <c r="M97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N97" s="12" t="s">
+      <c r="N97" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D98" s="75"/>
-      <c r="M98" s="12" t="s">
+    <row r="98" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
+      <c r="M98" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N98" s="12" t="s">
+      <c r="N98" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D99" s="75"/>
-      <c r="M99" s="12" t="s">
+    <row r="99" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="64"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="M99" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N99" s="12" t="s">
+      <c r="N99" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D100" s="75"/>
-      <c r="M100" s="12" t="s">
+    <row r="100" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="68"/>
+      <c r="M100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N100" s="12" t="s">
+      <c r="N100" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D101" s="75"/>
-      <c r="M101" s="12" t="s">
+    <row r="101" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="64"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+      <c r="M101" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N101" s="12" t="s">
+      <c r="N101" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D102" s="75"/>
-      <c r="M102" s="12" t="s">
+    <row r="102" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="64"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="68"/>
+      <c r="M102" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N102" s="12" t="s">
+      <c r="N102" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" s="75"/>
-      <c r="M103" s="12" t="s">
+    <row r="103" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="64"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68"/>
+      <c r="M103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N103" s="12" t="s">
+      <c r="N103" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="75"/>
-      <c r="M104" s="12" t="s">
+    <row r="104" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="64"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="68"/>
+      <c r="M104" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N104" s="12" t="s">
+      <c r="N104" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="75"/>
-    </row>
-    <row r="106" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="75"/>
-      <c r="M106" s="12" t="s">
+    <row r="105" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="64"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="68"/>
+    </row>
+    <row r="106" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="68"/>
+      <c r="M106" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N106" s="12" t="s">
+      <c r="N106" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D107" s="75"/>
-      <c r="M107" s="12" t="s">
+    <row r="107" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="64"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="68"/>
+      <c r="M107" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N107" s="12" t="s">
+      <c r="N107" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D108" s="75"/>
-      <c r="M108" s="12" t="s">
+    <row r="108" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68"/>
+      <c r="M108" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N108" s="12" t="s">
+      <c r="N108" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D109" s="75"/>
-      <c r="M109" s="12" t="s">
+    <row r="109" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="64"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="68"/>
+      <c r="M109" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N109" s="12" t="s">
+      <c r="N109" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D110" s="75"/>
-      <c r="M110" s="12" t="s">
+    <row r="110" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="64"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
+      <c r="H110" s="68"/>
+      <c r="M110" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N110" s="12" t="s">
+      <c r="N110" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D111" s="75"/>
-      <c r="M111" s="12" t="s">
+    <row r="111" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="64"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="M111" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N111" s="12" t="s">
+      <c r="N111" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D112" s="75"/>
-      <c r="M112" s="12" t="s">
+    <row r="112" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="68"/>
+      <c r="M112" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N112" s="12" t="s">
+      <c r="N112" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D113" s="75"/>
-      <c r="M113" s="12" t="s">
+    <row r="113" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="64"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="M113" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N113" s="12" t="s">
+      <c r="N113" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D114" s="75"/>
-      <c r="M114" s="12" t="s">
+    <row r="114" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="64"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68"/>
+      <c r="M114" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N114" s="12" t="s">
+      <c r="N114" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D115" s="75"/>
-      <c r="M115" s="12" t="s">
+    <row r="115" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="64"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
+      <c r="M115" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N115" s="12" t="s">
+      <c r="N115" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D116" s="75"/>
-      <c r="M116" s="12" t="s">
+    <row r="116" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="64"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="68"/>
+      <c r="M116" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N116" s="12" t="s">
+      <c r="N116" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="117" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D117" s="75"/>
-      <c r="M117" s="12" t="s">
+    <row r="117" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="64"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
+      <c r="M117" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N117" s="12" t="s">
+      <c r="N117" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D118" s="75"/>
-      <c r="M118" s="12" t="s">
+    <row r="118" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="64"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="68"/>
+      <c r="M118" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N118" s="12" t="s">
+      <c r="N118" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="119" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D119" s="75"/>
-      <c r="M119" s="12" t="s">
+    <row r="119" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="64"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
+      <c r="M119" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N119" s="12" t="s">
+      <c r="N119" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="120" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D120" s="75"/>
-      <c r="M120" s="12" t="s">
+    <row r="120" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="64"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="68"/>
+      <c r="M120" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N120" s="12" t="s">
+      <c r="N120" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="121" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D121" s="75"/>
-      <c r="M121" s="12" t="s">
+    <row r="121" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="64"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="68"/>
+      <c r="M121" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N121" s="12" t="s">
+      <c r="N121" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D122" s="75"/>
-      <c r="M122" s="12" t="s">
+    <row r="122" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="64"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="68"/>
+      <c r="M122" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="N122" s="12" t="s">
+      <c r="N122" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="75"/>
-      <c r="M123" s="12" t="s">
+    <row r="123" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="64"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="68"/>
+      <c r="M123" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="N123" s="12" t="s">
+      <c r="N123" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D124" s="75"/>
-      <c r="M124" s="12" t="s">
+    <row r="124" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="64"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="M124" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N124" s="12" t="s">
+      <c r="N124" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D125" s="75"/>
-      <c r="M125" s="12" t="s">
+    <row r="125" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="64"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="68"/>
+      <c r="M125" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="N125" s="12" t="s">
+      <c r="N125" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D126" s="75"/>
-      <c r="M126" s="12" t="s">
+    <row r="126" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="64"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
+      <c r="M126" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="N126" s="12" t="s">
+      <c r="N126" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D127" s="75"/>
-      <c r="M127" s="12" t="s">
+    <row r="127" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="64"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68"/>
+      <c r="M127" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N127" s="12" t="s">
+      <c r="N127" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D128" s="75"/>
-      <c r="M128" s="12" t="s">
+    <row r="128" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="64"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68"/>
+      <c r="M128" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N128" s="12" t="s">
+      <c r="N128" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D129" s="75"/>
-      <c r="M129" s="12" t="s">
+    <row r="129" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="64"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
+      <c r="M129" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N129" s="12" t="s">
+      <c r="N129" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D130" s="75"/>
-      <c r="M130" s="12" t="s">
+    <row r="130" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="64"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="68"/>
+      <c r="M130" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N130" s="12" t="s">
+      <c r="N130" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D131" s="75"/>
-      <c r="M131" s="12" t="s">
+    <row r="131" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="64"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
+      <c r="H131" s="68"/>
+      <c r="M131" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N131" s="12" t="s">
+      <c r="N131" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D132" s="75"/>
-      <c r="M132" s="12" t="s">
+    <row r="132" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="64"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="64"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="68"/>
+      <c r="M132" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N132" s="12" t="s">
+      <c r="N132" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D133" s="75"/>
-      <c r="M133" s="12" t="s">
+    <row r="133" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="64"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="64"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
+      <c r="M133" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N133" s="12" t="s">
+      <c r="N133" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D134" s="75"/>
-      <c r="M134" s="12" t="s">
+    <row r="134" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="64"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
+      <c r="H134" s="68"/>
+      <c r="M134" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="N134" s="12" t="s">
+      <c r="N134" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D135" s="75"/>
-      <c r="M135" s="12" t="s">
+    <row r="135" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="64"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="68"/>
+      <c r="H135" s="68"/>
+      <c r="M135" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N135" s="12" t="s">
+      <c r="N135" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D136" s="75"/>
-      <c r="M136" s="12" t="s">
+    <row r="136" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="64"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="68"/>
+      <c r="M136" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N136" s="12" t="s">
+      <c r="N136" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D137" s="75"/>
-      <c r="M137" s="12" t="s">
+    <row r="137" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="64"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="64"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="M137" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N137" s="12" t="s">
+      <c r="N137" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="138" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D138" s="75"/>
-      <c r="M138" s="12" t="s">
+    <row r="138" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="64"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="64"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="68"/>
+      <c r="H138" s="68"/>
+      <c r="M138" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N138" s="12" t="s">
+      <c r="N138" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="139" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D139" s="75"/>
-      <c r="M139" s="12" t="s">
+    <row r="139" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="64"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="68"/>
+      <c r="H139" s="68"/>
+      <c r="M139" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="N139" s="12" t="s">
+      <c r="N139" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D140" s="75"/>
-      <c r="M140" s="12" t="s">
+    <row r="140" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="64"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="64"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
+      <c r="H140" s="68"/>
+      <c r="M140" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="N140" s="12" t="s">
+      <c r="N140" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D141" s="75"/>
-      <c r="M141" s="12" t="s">
+    <row r="141" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="64"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="64"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="68"/>
+      <c r="M141" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N141" s="12" t="s">
+      <c r="N141" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D142" s="75"/>
-      <c r="M142" s="12" t="s">
+    <row r="142" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="64"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="68"/>
+      <c r="H142" s="68"/>
+      <c r="M142" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N142" s="12" t="s">
+      <c r="N142" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="143" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D143" s="75"/>
-      <c r="M143" s="12" t="s">
+    <row r="143" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="64"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="68"/>
+      <c r="M143" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="N143" s="12" t="s">
+      <c r="N143" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D144" s="75"/>
-      <c r="M144" s="12" t="s">
+    <row r="144" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="64"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="M144" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N144" s="12" t="s">
+      <c r="N144" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D145" s="75"/>
-      <c r="M145" s="12" t="s">
+    <row r="145" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="64"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="64"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="68"/>
+      <c r="M145" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N145" s="12" t="s">
+      <c r="N145" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D146" s="75"/>
-      <c r="M146" s="12" t="s">
+    <row r="146" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="64"/>
+      <c r="D146" s="65"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="68"/>
+      <c r="M146" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N146" s="12" t="s">
+      <c r="N146" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="147" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D147" s="75"/>
-      <c r="M147" s="12" t="s">
+    <row r="147" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="64"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="68"/>
+      <c r="H147" s="68"/>
+      <c r="M147" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N147" s="12" t="s">
+      <c r="N147" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D148" s="75"/>
-      <c r="M148" s="12" t="s">
+    <row r="148" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="64"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="68"/>
+      <c r="H148" s="68"/>
+      <c r="M148" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N148" s="12" t="s">
+      <c r="N148" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="149" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D149" s="75"/>
-      <c r="M149" s="12" t="s">
+    <row r="149" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="64"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="64"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="68"/>
+      <c r="M149" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N149" s="12" t="s">
+      <c r="N149" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D150" s="75"/>
-      <c r="M150" s="12" t="s">
+    <row r="150" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="64"/>
+      <c r="D150" s="65"/>
+      <c r="E150" s="64"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="68"/>
+      <c r="H150" s="68"/>
+      <c r="M150" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N150" s="12" t="s">
+      <c r="N150" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D151" s="75"/>
-      <c r="M151" s="12" t="s">
+    <row r="151" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="64"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="64"/>
+      <c r="F151" s="68"/>
+      <c r="G151" s="68"/>
+      <c r="H151" s="68"/>
+      <c r="M151" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N151" s="12" t="s">
+      <c r="N151" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="152" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D152" s="75"/>
-      <c r="M152" s="12" t="s">
+    <row r="152" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="64"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="64"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="68"/>
+      <c r="H152" s="68"/>
+      <c r="M152" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N152" s="12" t="s">
+      <c r="N152" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="153" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D153" s="75"/>
-      <c r="M153" s="12" t="s">
+    <row r="153" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C153" s="64"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="64"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="68"/>
+      <c r="M153" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="N153" s="12" t="s">
+      <c r="N153" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="154" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D154" s="75"/>
-      <c r="M154" s="12" t="s">
+    <row r="154" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="64"/>
+      <c r="D154" s="65"/>
+      <c r="E154" s="64"/>
+      <c r="F154" s="68"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="68"/>
+      <c r="M154" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N154" s="12" t="s">
+      <c r="N154" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="155" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D155" s="75"/>
-      <c r="M155" s="12" t="s">
+    <row r="155" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C155" s="64"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="64"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="68"/>
+      <c r="M155" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N155" s="12" t="s">
+      <c r="N155" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="156" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D156" s="75"/>
-      <c r="M156" s="12" t="s">
+    <row r="156" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C156" s="64"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="64"/>
+      <c r="F156" s="68"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="68"/>
+      <c r="M156" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N156" s="12" t="s">
+      <c r="N156" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D157" s="75"/>
-      <c r="M157" s="12" t="s">
+    <row r="157" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="64"/>
+      <c r="D157" s="65"/>
+      <c r="E157" s="64"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="68"/>
+      <c r="M157" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="N157" s="12" t="s">
+      <c r="N157" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D158" s="75"/>
-      <c r="M158" s="12" t="s">
+    <row r="158" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="64"/>
+      <c r="D158" s="65"/>
+      <c r="E158" s="64"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="68"/>
+      <c r="M158" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="N158" s="12" t="s">
+      <c r="N158" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="159" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D159" s="75"/>
-      <c r="M159" s="12" t="s">
+    <row r="159" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C159" s="64"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="64"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="68"/>
+      <c r="M159" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N159" s="12" t="s">
+      <c r="N159" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="160" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D160" s="75"/>
-      <c r="M160" s="12" t="s">
+    <row r="160" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="64"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="68"/>
+      <c r="M160" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="N160" s="12" t="s">
+      <c r="N160" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D161" s="75"/>
-      <c r="M161" s="12" t="s">
+    <row r="161" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="64"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="64"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="68"/>
+      <c r="M161" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N161" s="12" t="s">
+      <c r="N161" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D162" s="75"/>
-    </row>
-    <row r="163" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D163" s="75"/>
-      <c r="M163" s="12" t="s">
+    <row r="162" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C162" s="64"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="64"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="68"/>
+    </row>
+    <row r="163" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="64"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="64"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="68"/>
+      <c r="M163" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N163" s="12" t="s">
+      <c r="N163" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="164" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D164" s="75"/>
-      <c r="M164" s="12" t="s">
+    <row r="164" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C164" s="64"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="64"/>
+      <c r="F164" s="68"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="68"/>
+      <c r="M164" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="N164" s="12" t="s">
+      <c r="N164" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="165" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D165" s="75"/>
-      <c r="M165" s="12" t="s">
+    <row r="165" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="64"/>
+      <c r="D165" s="65"/>
+      <c r="E165" s="64"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="68"/>
+      <c r="M165" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="N165" s="12" t="s">
+      <c r="N165" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D166" s="75"/>
-      <c r="M166" s="12" t="s">
+    <row r="166" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="64"/>
+      <c r="D166" s="65"/>
+      <c r="E166" s="64"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="68"/>
+      <c r="H166" s="68"/>
+      <c r="M166" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="N166" s="12" t="s">
+      <c r="N166" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="167" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D167" s="75"/>
-      <c r="M167" s="12" t="s">
+    <row r="167" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="64"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="64"/>
+      <c r="F167" s="68"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="68"/>
+      <c r="M167" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N167" s="12" t="s">
+      <c r="N167" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="168" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D168" s="75"/>
-      <c r="M168" s="12" t="s">
+    <row r="168" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="64"/>
+      <c r="D168" s="65"/>
+      <c r="E168" s="64"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="68"/>
+      <c r="M168" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="N168" s="12" t="s">
+      <c r="N168" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D169" s="75"/>
-      <c r="M169" s="12" t="s">
+    <row r="169" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="64"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="64"/>
+      <c r="F169" s="68"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="68"/>
+      <c r="M169" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N169" s="12" t="s">
+      <c r="N169" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="170" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D170" s="75"/>
-      <c r="M170" s="12" t="s">
+    <row r="170" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="64"/>
+      <c r="D170" s="65"/>
+      <c r="E170" s="64"/>
+      <c r="F170" s="68"/>
+      <c r="G170" s="68"/>
+      <c r="H170" s="68"/>
+      <c r="M170" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="N170" s="12" t="s">
+      <c r="N170" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="171" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D171" s="75"/>
-      <c r="M171" s="12" t="s">
+    <row r="171" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="64"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="64"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="68"/>
+      <c r="M171" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N171" s="12" t="s">
+      <c r="N171" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="172" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D172" s="75"/>
-      <c r="M172" s="12" t="s">
+    <row r="172" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="64"/>
+      <c r="D172" s="65"/>
+      <c r="E172" s="64"/>
+      <c r="F172" s="68"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="68"/>
+      <c r="M172" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="N172" s="12" t="s">
+      <c r="N172" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D173" s="75"/>
-      <c r="M173" s="12" t="s">
+    <row r="173" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="64"/>
+      <c r="D173" s="65"/>
+      <c r="E173" s="64"/>
+      <c r="F173" s="68"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="68"/>
+      <c r="M173" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="N173" s="12" t="s">
+      <c r="N173" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="174" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D174" s="75"/>
-      <c r="M174" s="12" t="s">
+    <row r="174" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="64"/>
+      <c r="D174" s="65"/>
+      <c r="E174" s="64"/>
+      <c r="F174" s="68"/>
+      <c r="G174" s="68"/>
+      <c r="H174" s="68"/>
+      <c r="M174" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="N174" s="12" t="s">
+      <c r="N174" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="175" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D175" s="75"/>
-      <c r="M175" s="12" t="s">
+    <row r="175" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="64"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="68"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="68"/>
+      <c r="M175" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="N175" s="12" t="s">
+      <c r="N175" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="176" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D176" s="75"/>
-      <c r="M176" s="12" t="s">
+    <row r="176" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="64"/>
+      <c r="D176" s="65"/>
+      <c r="E176" s="64"/>
+      <c r="F176" s="68"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="68"/>
+      <c r="M176" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="N176" s="12" t="s">
+      <c r="N176" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D177" s="75"/>
-      <c r="M177" s="12" t="s">
+    <row r="177" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="64"/>
+      <c r="D177" s="65"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="68"/>
+      <c r="M177" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N177" s="12" t="s">
+      <c r="N177" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D178" s="75"/>
-      <c r="M178" s="12" t="s">
+    <row r="178" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="64"/>
+      <c r="D178" s="65"/>
+      <c r="E178" s="64"/>
+      <c r="F178" s="68"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="68"/>
+      <c r="M178" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N178" s="12" t="s">
+      <c r="N178" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="179" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D179" s="75"/>
-      <c r="M179" s="12" t="s">
+    <row r="179" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="64"/>
+      <c r="D179" s="65"/>
+      <c r="E179" s="64"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="68"/>
+      <c r="M179" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N179" s="12" t="s">
+      <c r="N179" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="180" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D180" s="75"/>
-      <c r="M180" s="12" t="s">
+    <row r="180" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="64"/>
+      <c r="D180" s="65"/>
+      <c r="E180" s="64"/>
+      <c r="F180" s="68"/>
+      <c r="G180" s="68"/>
+      <c r="H180" s="68"/>
+      <c r="M180" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="N180" s="12" t="s">
+      <c r="N180" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D181" s="75"/>
-      <c r="M181" s="12" t="s">
+    <row r="181" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="64"/>
+      <c r="D181" s="65"/>
+      <c r="E181" s="64"/>
+      <c r="F181" s="68"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="68"/>
+      <c r="M181" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N181" s="12" t="s">
+      <c r="N181" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D182" s="75"/>
-      <c r="M182" s="12" t="s">
+    <row r="182" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="64"/>
+      <c r="D182" s="65"/>
+      <c r="E182" s="64"/>
+      <c r="F182" s="68"/>
+      <c r="G182" s="68"/>
+      <c r="H182" s="68"/>
+      <c r="M182" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N182" s="12" t="s">
+      <c r="N182" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D183" s="75"/>
-      <c r="M183" s="12" t="s">
+    <row r="183" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="64"/>
+      <c r="D183" s="65"/>
+      <c r="E183" s="64"/>
+      <c r="F183" s="68"/>
+      <c r="G183" s="68"/>
+      <c r="H183" s="68"/>
+      <c r="M183" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N183" s="12" t="s">
+      <c r="N183" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D184" s="75"/>
-      <c r="M184" s="12" t="s">
+    <row r="184" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="64"/>
+      <c r="D184" s="65"/>
+      <c r="E184" s="64"/>
+      <c r="F184" s="68"/>
+      <c r="G184" s="68"/>
+      <c r="H184" s="68"/>
+      <c r="M184" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="N184" s="12" t="s">
+      <c r="N184" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D185" s="75"/>
-      <c r="M185" s="12" t="s">
+    <row r="185" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="64"/>
+      <c r="D185" s="65"/>
+      <c r="E185" s="64"/>
+      <c r="F185" s="68"/>
+      <c r="G185" s="68"/>
+      <c r="H185" s="68"/>
+      <c r="M185" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="N185" s="12" t="s">
+      <c r="N185" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="186" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D186" s="75"/>
-      <c r="M186" s="12" t="s">
+    <row r="186" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="64"/>
+      <c r="D186" s="65"/>
+      <c r="E186" s="64"/>
+      <c r="F186" s="68"/>
+      <c r="G186" s="68"/>
+      <c r="H186" s="68"/>
+      <c r="M186" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="N186" s="12" t="s">
+      <c r="N186" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="187" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D187" s="75"/>
-      <c r="M187" s="12" t="s">
+    <row r="187" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="64"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="64"/>
+      <c r="F187" s="68"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="68"/>
+      <c r="M187" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N187" s="12" t="s">
+      <c r="N187" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="188" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D188" s="75"/>
-      <c r="M188" s="12" t="s">
+    <row r="188" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="64"/>
+      <c r="D188" s="65"/>
+      <c r="E188" s="64"/>
+      <c r="F188" s="68"/>
+      <c r="G188" s="68"/>
+      <c r="H188" s="68"/>
+      <c r="M188" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="N188" s="12" t="s">
+      <c r="N188" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="189" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D189" s="75"/>
-      <c r="M189" s="12" t="s">
+    <row r="189" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="64"/>
+      <c r="D189" s="65"/>
+      <c r="E189" s="64"/>
+      <c r="F189" s="68"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="68"/>
+      <c r="M189" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="N189" s="12" t="s">
+      <c r="N189" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="190" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D190" s="75"/>
-      <c r="M190" s="12" t="s">
+    <row r="190" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="64"/>
+      <c r="D190" s="65"/>
+      <c r="E190" s="64"/>
+      <c r="F190" s="68"/>
+      <c r="G190" s="68"/>
+      <c r="H190" s="68"/>
+      <c r="M190" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="N190" s="12" t="s">
+      <c r="N190" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="191" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D191" s="75"/>
-      <c r="M191" s="12" t="s">
+    <row r="191" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="64"/>
+      <c r="D191" s="65"/>
+      <c r="E191" s="64"/>
+      <c r="F191" s="68"/>
+      <c r="G191" s="68"/>
+      <c r="H191" s="68"/>
+      <c r="M191" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="N191" s="12" t="s">
+      <c r="N191" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="192" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D192" s="75"/>
-      <c r="M192" s="12" t="s">
+    <row r="192" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="64"/>
+      <c r="D192" s="65"/>
+      <c r="E192" s="64"/>
+      <c r="F192" s="68"/>
+      <c r="G192" s="68"/>
+      <c r="H192" s="68"/>
+      <c r="M192" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N192" s="12" t="s">
+      <c r="N192" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="193" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D193" s="75"/>
-      <c r="M193" s="12" t="s">
+    <row r="193" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="64"/>
+      <c r="D193" s="65"/>
+      <c r="E193" s="64"/>
+      <c r="F193" s="68"/>
+      <c r="G193" s="68"/>
+      <c r="H193" s="68"/>
+      <c r="M193" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="N193" s="12" t="s">
+      <c r="N193" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="194" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D194" s="75"/>
-      <c r="M194" s="12" t="s">
+    <row r="194" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C194" s="64"/>
+      <c r="D194" s="65"/>
+      <c r="E194" s="64"/>
+      <c r="F194" s="68"/>
+      <c r="G194" s="68"/>
+      <c r="H194" s="68"/>
+      <c r="M194" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="N194" s="12" t="s">
+      <c r="N194" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="195" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D195" s="75"/>
-      <c r="M195" s="12" t="s">
+    <row r="195" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C195" s="64"/>
+      <c r="D195" s="65"/>
+      <c r="E195" s="64"/>
+      <c r="F195" s="68"/>
+      <c r="G195" s="68"/>
+      <c r="H195" s="68"/>
+      <c r="M195" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="N195" s="12" t="s">
+      <c r="N195" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D196" s="75"/>
-      <c r="M196" s="12" t="s">
+    <row r="196" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C196" s="64"/>
+      <c r="D196" s="65"/>
+      <c r="E196" s="64"/>
+      <c r="F196" s="68"/>
+      <c r="G196" s="68"/>
+      <c r="H196" s="68"/>
+      <c r="M196" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="N196" s="12" t="s">
+      <c r="N196" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="197" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D197" s="75"/>
-      <c r="M197" s="12" t="s">
+    <row r="197" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C197" s="64"/>
+      <c r="D197" s="65"/>
+      <c r="E197" s="64"/>
+      <c r="F197" s="68"/>
+      <c r="G197" s="68"/>
+      <c r="H197" s="68"/>
+      <c r="M197" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N197" s="12" t="s">
+      <c r="N197" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="198" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D198" s="75"/>
-      <c r="M198" s="12" t="s">
+    <row r="198" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C198" s="64"/>
+      <c r="D198" s="65"/>
+      <c r="E198" s="64"/>
+      <c r="F198" s="68"/>
+      <c r="G198" s="68"/>
+      <c r="H198" s="68"/>
+      <c r="M198" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="N198" s="12" t="s">
+      <c r="N198" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D199" s="75"/>
-      <c r="M199" s="12" t="s">
+    <row r="199" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C199" s="64"/>
+      <c r="D199" s="65"/>
+      <c r="E199" s="64"/>
+      <c r="F199" s="68"/>
+      <c r="G199" s="68"/>
+      <c r="H199" s="68"/>
+      <c r="M199" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="N199" s="12" t="s">
+      <c r="N199" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="200" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D200" s="75"/>
-      <c r="M200" s="12" t="s">
+    <row r="200" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C200" s="64"/>
+      <c r="D200" s="65"/>
+      <c r="E200" s="64"/>
+      <c r="F200" s="68"/>
+      <c r="G200" s="68"/>
+      <c r="H200" s="68"/>
+      <c r="M200" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="N200" s="12" t="s">
+      <c r="N200" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="201" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D201" s="75"/>
-      <c r="M201" s="12" t="s">
+    <row r="201" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C201" s="64"/>
+      <c r="D201" s="65"/>
+      <c r="E201" s="64"/>
+      <c r="F201" s="68"/>
+      <c r="G201" s="68"/>
+      <c r="H201" s="68"/>
+      <c r="M201" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="N201" s="12" t="s">
+      <c r="N201" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="202" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D202" s="75"/>
-      <c r="M202" s="12" t="s">
+    <row r="202" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C202" s="64"/>
+      <c r="D202" s="65"/>
+      <c r="E202" s="64"/>
+      <c r="F202" s="68"/>
+      <c r="G202" s="68"/>
+      <c r="H202" s="68"/>
+      <c r="M202" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="N202" s="12" t="s">
+      <c r="N202" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D203" s="75"/>
-      <c r="M203" s="12" t="s">
+    <row r="203" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C203" s="64"/>
+      <c r="D203" s="65"/>
+      <c r="E203" s="64"/>
+      <c r="F203" s="68"/>
+      <c r="G203" s="68"/>
+      <c r="H203" s="68"/>
+      <c r="M203" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="N203" s="12" t="s">
+      <c r="N203" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="204" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D204" s="75"/>
-      <c r="M204" s="12" t="s">
+    <row r="204" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C204" s="64"/>
+      <c r="D204" s="65"/>
+      <c r="E204" s="64"/>
+      <c r="F204" s="68"/>
+      <c r="G204" s="68"/>
+      <c r="H204" s="68"/>
+      <c r="M204" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N204" s="12" t="s">
+      <c r="N204" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="205" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D205" s="75"/>
-      <c r="M205" s="12" t="s">
+    <row r="205" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="64"/>
+      <c r="D205" s="65"/>
+      <c r="E205" s="64"/>
+      <c r="F205" s="68"/>
+      <c r="G205" s="68"/>
+      <c r="H205" s="68"/>
+      <c r="M205" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="N205" s="12" t="s">
+      <c r="N205" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="206" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D206" s="75"/>
-      <c r="M206" s="12" t="s">
+    <row r="206" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C206" s="64"/>
+      <c r="D206" s="65"/>
+      <c r="E206" s="64"/>
+      <c r="F206" s="68"/>
+      <c r="G206" s="68"/>
+      <c r="H206" s="68"/>
+      <c r="M206" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="N206" s="12" t="s">
+      <c r="N206" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="207" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D207" s="75"/>
-      <c r="M207" s="12" t="s">
+    <row r="207" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="64"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="64"/>
+      <c r="F207" s="68"/>
+      <c r="G207" s="68"/>
+      <c r="H207" s="68"/>
+      <c r="M207" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N207" s="12" t="s">
+      <c r="N207" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="208" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D208" s="75"/>
-      <c r="M208" s="12" t="s">
+    <row r="208" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" s="64"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="64"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="68"/>
+      <c r="H208" s="68"/>
+      <c r="M208" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N208" s="12" t="s">
+      <c r="N208" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="209" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D209" s="75"/>
-      <c r="M209" s="12" t="s">
+    <row r="209" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="64"/>
+      <c r="D209" s="65"/>
+      <c r="E209" s="64"/>
+      <c r="F209" s="68"/>
+      <c r="G209" s="68"/>
+      <c r="H209" s="68"/>
+      <c r="M209" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="N209" s="12" t="s">
+      <c r="N209" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="210" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D210" s="75"/>
-      <c r="M210" s="12" t="s">
+    <row r="210" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="64"/>
+      <c r="D210" s="65"/>
+      <c r="E210" s="64"/>
+      <c r="F210" s="68"/>
+      <c r="G210" s="68"/>
+      <c r="H210" s="68"/>
+      <c r="M210" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="N210" s="12" t="s">
+      <c r="N210" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="211" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D211" s="75"/>
-      <c r="M211" s="12" t="s">
+    <row r="211" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C211" s="64"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="64"/>
+      <c r="F211" s="68"/>
+      <c r="G211" s="68"/>
+      <c r="H211" s="68"/>
+      <c r="M211" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N211" s="12" t="s">
+      <c r="N211" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="212" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D212" s="75"/>
-      <c r="M212" s="12" t="s">
+    <row r="212" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C212" s="64"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="64"/>
+      <c r="F212" s="68"/>
+      <c r="G212" s="68"/>
+      <c r="H212" s="68"/>
+      <c r="M212" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="N212" s="12" t="s">
+      <c r="N212" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="213" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D213" s="75"/>
-      <c r="M213" s="12" t="s">
+    <row r="213" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C213" s="64"/>
+      <c r="D213" s="65"/>
+      <c r="E213" s="64"/>
+      <c r="F213" s="68"/>
+      <c r="G213" s="68"/>
+      <c r="H213" s="68"/>
+      <c r="M213" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="N213" s="12" t="s">
+      <c r="N213" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="214" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D214" s="75"/>
-      <c r="M214" s="12" t="s">
+    <row r="214" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C214" s="64"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="64"/>
+      <c r="F214" s="68"/>
+      <c r="G214" s="68"/>
+      <c r="H214" s="68"/>
+      <c r="M214" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="N214" s="12" t="s">
+      <c r="N214" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="215" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D215" s="75"/>
-      <c r="M215" s="12" t="s">
+    <row r="215" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C215" s="64"/>
+      <c r="D215" s="65"/>
+      <c r="E215" s="64"/>
+      <c r="F215" s="68"/>
+      <c r="G215" s="68"/>
+      <c r="H215" s="68"/>
+      <c r="M215" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="N215" s="12" t="s">
+      <c r="N215" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="216" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D216" s="75"/>
-      <c r="M216" s="12" t="s">
+    <row r="216" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C216" s="64"/>
+      <c r="D216" s="65"/>
+      <c r="E216" s="64"/>
+      <c r="F216" s="68"/>
+      <c r="G216" s="68"/>
+      <c r="H216" s="68"/>
+      <c r="M216" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="N216" s="12" t="s">
+      <c r="N216" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="217" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D217" s="75"/>
-      <c r="M217" s="12" t="s">
+    <row r="217" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C217" s="64"/>
+      <c r="D217" s="65"/>
+      <c r="E217" s="64"/>
+      <c r="F217" s="68"/>
+      <c r="G217" s="68"/>
+      <c r="H217" s="68"/>
+      <c r="M217" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="N217" s="12" t="s">
+      <c r="N217" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D218" s="75"/>
-      <c r="M218" s="12" t="s">
+    <row r="218" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C218" s="64"/>
+      <c r="D218" s="65"/>
+      <c r="E218" s="64"/>
+      <c r="F218" s="68"/>
+      <c r="G218" s="68"/>
+      <c r="H218" s="68"/>
+      <c r="M218" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N218" s="12" t="s">
+      <c r="N218" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="219" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D219" s="75"/>
-    </row>
-    <row r="220" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D220" s="75"/>
-      <c r="M220" s="12" t="s">
+    <row r="219" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C219" s="64"/>
+      <c r="D219" s="65"/>
+      <c r="E219" s="64"/>
+      <c r="F219" s="68"/>
+      <c r="G219" s="68"/>
+      <c r="H219" s="68"/>
+    </row>
+    <row r="220" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C220" s="64"/>
+      <c r="D220" s="65"/>
+      <c r="E220" s="64"/>
+      <c r="F220" s="68"/>
+      <c r="G220" s="68"/>
+      <c r="H220" s="68"/>
+      <c r="M220" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N220" s="12" t="s">
+      <c r="N220" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="221" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D221" s="75"/>
-      <c r="M221" s="12" t="s">
+    <row r="221" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C221" s="64"/>
+      <c r="D221" s="65"/>
+      <c r="E221" s="64"/>
+      <c r="F221" s="68"/>
+      <c r="G221" s="68"/>
+      <c r="H221" s="68"/>
+      <c r="M221" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N221" s="12" t="s">
+      <c r="N221" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="222" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D222" s="75"/>
-      <c r="M222" s="12" t="s">
+    <row r="222" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C222" s="64"/>
+      <c r="D222" s="65"/>
+      <c r="E222" s="64"/>
+      <c r="F222" s="68"/>
+      <c r="G222" s="68"/>
+      <c r="H222" s="68"/>
+      <c r="M222" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="N222" s="12" t="s">
+      <c r="N222" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="223" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D223" s="75"/>
-      <c r="M223" s="12" t="s">
+    <row r="223" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C223" s="64"/>
+      <c r="D223" s="65"/>
+      <c r="E223" s="64"/>
+      <c r="F223" s="68"/>
+      <c r="G223" s="68"/>
+      <c r="H223" s="68"/>
+      <c r="M223" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N223" s="12" t="s">
+      <c r="N223" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="224" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D224" s="75"/>
-      <c r="M224" s="12" t="s">
+    <row r="224" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C224" s="64"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="64"/>
+      <c r="F224" s="68"/>
+      <c r="G224" s="68"/>
+      <c r="H224" s="68"/>
+      <c r="M224" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="N224" s="12" t="s">
+      <c r="N224" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="225" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D225" s="75"/>
-      <c r="M225" s="12" t="s">
+    <row r="225" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C225" s="64"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="64"/>
+      <c r="F225" s="68"/>
+      <c r="G225" s="68"/>
+      <c r="H225" s="68"/>
+      <c r="M225" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N225" s="12" t="s">
+      <c r="N225" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D226" s="75"/>
-      <c r="M226" s="12" t="s">
+    <row r="226" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="64"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="64"/>
+      <c r="F226" s="68"/>
+      <c r="G226" s="68"/>
+      <c r="H226" s="68"/>
+      <c r="M226" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N226" s="12" t="s">
+      <c r="N226" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="227" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D227" s="75"/>
-      <c r="M227" s="12" t="s">
+    <row r="227" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="64"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="64"/>
+      <c r="F227" s="68"/>
+      <c r="G227" s="68"/>
+      <c r="H227" s="68"/>
+      <c r="M227" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N227" s="12" t="s">
+      <c r="N227" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="228" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D228" s="75"/>
-      <c r="M228" s="12" t="s">
+    <row r="228" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="64"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="64"/>
+      <c r="F228" s="68"/>
+      <c r="G228" s="68"/>
+      <c r="H228" s="68"/>
+      <c r="M228" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N228" s="12" t="s">
+      <c r="N228" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="229" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D229" s="75"/>
-      <c r="M229" s="12" t="s">
+    <row r="229" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="64"/>
+      <c r="D229" s="65"/>
+      <c r="E229" s="64"/>
+      <c r="F229" s="68"/>
+      <c r="G229" s="68"/>
+      <c r="H229" s="68"/>
+      <c r="M229" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="N229" s="12" t="s">
+      <c r="N229" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="230" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D230" s="75"/>
-      <c r="M230" s="12" t="s">
+    <row r="230" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C230" s="64"/>
+      <c r="D230" s="65"/>
+      <c r="E230" s="64"/>
+      <c r="F230" s="68"/>
+      <c r="G230" s="68"/>
+      <c r="H230" s="68"/>
+      <c r="M230" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N230" s="12" t="s">
+      <c r="N230" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="231" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D231" s="75"/>
-      <c r="M231" s="12" t="s">
+    <row r="231" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C231" s="64"/>
+      <c r="D231" s="65"/>
+      <c r="E231" s="64"/>
+      <c r="F231" s="68"/>
+      <c r="G231" s="68"/>
+      <c r="H231" s="68"/>
+      <c r="M231" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N231" s="12" t="s">
+      <c r="N231" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="232" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D232" s="75"/>
-      <c r="M232" s="12" t="s">
+    <row r="232" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C232" s="64"/>
+      <c r="D232" s="65"/>
+      <c r="E232" s="64"/>
+      <c r="F232" s="68"/>
+      <c r="G232" s="68"/>
+      <c r="H232" s="68"/>
+      <c r="M232" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N232" s="12" t="s">
+      <c r="N232" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="233" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D233" s="75"/>
-      <c r="M233" s="12" t="s">
+    <row r="233" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C233" s="64"/>
+      <c r="D233" s="65"/>
+      <c r="E233" s="64"/>
+      <c r="F233" s="68"/>
+      <c r="G233" s="68"/>
+      <c r="H233" s="68"/>
+      <c r="M233" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="N233" s="12" t="s">
+      <c r="N233" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="234" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D234" s="75"/>
-      <c r="M234" s="12" t="s">
+    <row r="234" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C234" s="64"/>
+      <c r="D234" s="65"/>
+      <c r="E234" s="64"/>
+      <c r="F234" s="68"/>
+      <c r="G234" s="68"/>
+      <c r="H234" s="68"/>
+      <c r="M234" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N234" s="12" t="s">
+      <c r="N234" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="235" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D235" s="75"/>
-      <c r="M235" s="12" t="s">
+    <row r="235" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C235" s="64"/>
+      <c r="D235" s="65"/>
+      <c r="E235" s="64"/>
+      <c r="F235" s="68"/>
+      <c r="G235" s="68"/>
+      <c r="H235" s="68"/>
+      <c r="M235" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N235" s="12" t="s">
+      <c r="N235" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="236" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D236" s="75"/>
-      <c r="M236" s="12" t="s">
+    <row r="236" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C236" s="64"/>
+      <c r="D236" s="65"/>
+      <c r="E236" s="64"/>
+      <c r="F236" s="68"/>
+      <c r="G236" s="68"/>
+      <c r="H236" s="68"/>
+      <c r="M236" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N236" s="12" t="s">
+      <c r="N236" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="237" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D237" s="75"/>
-      <c r="M237" s="12" t="s">
+    <row r="237" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C237" s="64"/>
+      <c r="D237" s="65"/>
+      <c r="E237" s="64"/>
+      <c r="F237" s="68"/>
+      <c r="G237" s="68"/>
+      <c r="H237" s="68"/>
+      <c r="M237" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="N237" s="12" t="s">
+      <c r="N237" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="238" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D238" s="75"/>
-      <c r="M238" s="12" t="s">
+    <row r="238" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C238" s="64"/>
+      <c r="D238" s="65"/>
+      <c r="E238" s="64"/>
+      <c r="F238" s="68"/>
+      <c r="G238" s="68"/>
+      <c r="H238" s="68"/>
+      <c r="M238" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="N238" s="12" t="s">
+      <c r="N238" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="239" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D239" s="75"/>
-      <c r="M239" s="12" t="s">
+    <row r="239" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C239" s="64"/>
+      <c r="D239" s="65"/>
+      <c r="E239" s="64"/>
+      <c r="F239" s="68"/>
+      <c r="G239" s="68"/>
+      <c r="H239" s="68"/>
+      <c r="M239" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="N239" s="12" t="s">
+      <c r="N239" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="240" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D240" s="75"/>
-      <c r="M240" s="12" t="s">
+    <row r="240" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C240" s="64"/>
+      <c r="D240" s="65"/>
+      <c r="E240" s="64"/>
+      <c r="F240" s="68"/>
+      <c r="G240" s="68"/>
+      <c r="H240" s="68"/>
+      <c r="M240" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="N240" s="12" t="s">
+      <c r="N240" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="241" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D241" s="75"/>
-      <c r="M241" s="12" t="s">
+    <row r="241" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C241" s="64"/>
+      <c r="D241" s="65"/>
+      <c r="E241" s="64"/>
+      <c r="F241" s="68"/>
+      <c r="G241" s="68"/>
+      <c r="H241" s="68"/>
+      <c r="M241" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="N241" s="12" t="s">
+      <c r="N241" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="242" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D242" s="75"/>
-      <c r="M242" s="12" t="s">
+    <row r="242" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C242" s="64"/>
+      <c r="D242" s="65"/>
+      <c r="E242" s="64"/>
+      <c r="F242" s="68"/>
+      <c r="G242" s="68"/>
+      <c r="H242" s="68"/>
+      <c r="M242" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="N242" s="12" t="s">
+      <c r="N242" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="243" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D243" s="75"/>
-      <c r="M243" s="12" t="s">
+    <row r="243" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C243" s="64"/>
+      <c r="D243" s="65"/>
+      <c r="E243" s="64"/>
+      <c r="F243" s="68"/>
+      <c r="G243" s="68"/>
+      <c r="H243" s="68"/>
+      <c r="M243" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="N243" s="12" t="s">
+      <c r="N243" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="244" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D244" s="75"/>
-      <c r="M244" s="12" t="s">
+    <row r="244" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C244" s="64"/>
+      <c r="D244" s="65"/>
+      <c r="E244" s="64"/>
+      <c r="F244" s="68"/>
+      <c r="G244" s="68"/>
+      <c r="H244" s="68"/>
+      <c r="M244" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="N244" s="12" t="s">
+      <c r="N244" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="245" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D245" s="75"/>
-      <c r="M245" s="12" t="s">
+    <row r="245" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C245" s="64"/>
+      <c r="D245" s="65"/>
+      <c r="E245" s="64"/>
+      <c r="F245" s="68"/>
+      <c r="G245" s="68"/>
+      <c r="H245" s="68"/>
+      <c r="M245" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="N245" s="12" t="s">
+      <c r="N245" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="246" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D246" s="75"/>
-      <c r="M246" s="12" t="s">
+    <row r="246" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C246" s="64"/>
+      <c r="D246" s="65"/>
+      <c r="E246" s="64"/>
+      <c r="F246" s="68"/>
+      <c r="G246" s="68"/>
+      <c r="H246" s="68"/>
+      <c r="M246" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="N246" s="12" t="s">
+      <c r="N246" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="247" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D247" s="75"/>
-      <c r="M247" s="12" t="s">
+    <row r="247" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C247" s="64"/>
+      <c r="D247" s="65"/>
+      <c r="E247" s="64"/>
+      <c r="F247" s="68"/>
+      <c r="G247" s="68"/>
+      <c r="H247" s="68"/>
+      <c r="M247" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N247" s="12" t="s">
+      <c r="N247" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="248" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D248" s="75"/>
-      <c r="M248" s="12" t="s">
+    <row r="248" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C248" s="64"/>
+      <c r="D248" s="65"/>
+      <c r="E248" s="64"/>
+      <c r="F248" s="68"/>
+      <c r="G248" s="68"/>
+      <c r="H248" s="68"/>
+      <c r="M248" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="N248" s="12" t="s">
+      <c r="N248" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="249" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D249" s="75"/>
-      <c r="M249" s="12" t="s">
+    <row r="249" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C249" s="64"/>
+      <c r="D249" s="65"/>
+      <c r="E249" s="64"/>
+      <c r="F249" s="68"/>
+      <c r="G249" s="68"/>
+      <c r="H249" s="68"/>
+      <c r="M249" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="N249" s="12" t="s">
+      <c r="N249" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="250" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D250" s="75"/>
-      <c r="M250" s="12" t="s">
+    <row r="250" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C250" s="64"/>
+      <c r="D250" s="65"/>
+      <c r="E250" s="64"/>
+      <c r="F250" s="68"/>
+      <c r="G250" s="68"/>
+      <c r="H250" s="68"/>
+      <c r="M250" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="N250" s="12" t="s">
+      <c r="N250" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="251" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D251" s="75"/>
-      <c r="M251" s="12" t="s">
+    <row r="251" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C251" s="64"/>
+      <c r="D251" s="65"/>
+      <c r="E251" s="64"/>
+      <c r="F251" s="68"/>
+      <c r="G251" s="68"/>
+      <c r="H251" s="68"/>
+      <c r="M251" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="N251" s="12" t="s">
+      <c r="N251" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="252" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D252" s="75"/>
-      <c r="M252" s="12" t="s">
+    <row r="252" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C252" s="64"/>
+      <c r="D252" s="65"/>
+      <c r="E252" s="64"/>
+      <c r="F252" s="68"/>
+      <c r="G252" s="68"/>
+      <c r="H252" s="68"/>
+      <c r="M252" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="N252" s="12" t="s">
+      <c r="N252" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="253" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D253" s="75"/>
-      <c r="M253" s="12" t="s">
+    <row r="253" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C253" s="64"/>
+      <c r="D253" s="65"/>
+      <c r="E253" s="64"/>
+      <c r="F253" s="68"/>
+      <c r="G253" s="68"/>
+      <c r="H253" s="68"/>
+      <c r="M253" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N253" s="12" t="s">
+      <c r="N253" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="254" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D254" s="75"/>
-      <c r="M254" s="12" t="s">
+    <row r="254" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C254" s="64"/>
+      <c r="D254" s="65"/>
+      <c r="E254" s="64"/>
+      <c r="F254" s="68"/>
+      <c r="G254" s="68"/>
+      <c r="H254" s="68"/>
+      <c r="M254" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="N254" s="12" t="s">
+      <c r="N254" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="255" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D255" s="75"/>
-      <c r="M255" s="12" t="s">
+    <row r="255" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C255" s="64"/>
+      <c r="D255" s="65"/>
+      <c r="E255" s="64"/>
+      <c r="F255" s="68"/>
+      <c r="G255" s="68"/>
+      <c r="H255" s="68"/>
+      <c r="M255" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N255" s="12" t="s">
+      <c r="N255" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="256" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D256" s="75"/>
-      <c r="M256" s="12" t="s">
+    <row r="256" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C256" s="64"/>
+      <c r="D256" s="65"/>
+      <c r="E256" s="64"/>
+      <c r="F256" s="68"/>
+      <c r="G256" s="68"/>
+      <c r="H256" s="68"/>
+      <c r="M256" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N256" s="12" t="s">
+      <c r="N256" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="257" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D257" s="75"/>
-      <c r="M257" s="12" t="s">
+    <row r="257" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C257" s="64"/>
+      <c r="D257" s="65"/>
+      <c r="E257" s="64"/>
+      <c r="F257" s="68"/>
+      <c r="G257" s="68"/>
+      <c r="H257" s="68"/>
+      <c r="M257" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="N257" s="12" t="s">
+      <c r="N257" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="258" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D258" s="75"/>
-      <c r="M258" s="12" t="s">
+    <row r="258" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C258" s="64"/>
+      <c r="D258" s="65"/>
+      <c r="E258" s="64"/>
+      <c r="F258" s="68"/>
+      <c r="G258" s="68"/>
+      <c r="H258" s="68"/>
+      <c r="M258" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="N258" s="12" t="s">
+      <c r="N258" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="259" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D259" s="75"/>
-      <c r="M259" s="12" t="s">
+    <row r="259" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C259" s="64"/>
+      <c r="D259" s="65"/>
+      <c r="E259" s="64"/>
+      <c r="F259" s="68"/>
+      <c r="G259" s="68"/>
+      <c r="H259" s="68"/>
+      <c r="M259" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="N259" s="12" t="s">
+      <c r="N259" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="260" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D260" s="75"/>
-      <c r="M260" s="12" t="s">
+    <row r="260" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C260" s="64"/>
+      <c r="D260" s="65"/>
+      <c r="E260" s="64"/>
+      <c r="F260" s="68"/>
+      <c r="G260" s="68"/>
+      <c r="H260" s="68"/>
+      <c r="M260" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="N260" s="12" t="s">
+      <c r="N260" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="261" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D261" s="75"/>
-      <c r="M261" s="12" t="s">
+    <row r="261" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C261" s="64"/>
+      <c r="D261" s="65"/>
+      <c r="E261" s="64"/>
+      <c r="F261" s="68"/>
+      <c r="G261" s="68"/>
+      <c r="H261" s="68"/>
+      <c r="M261" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="N261" s="12" t="s">
+      <c r="N261" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="262" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D262" s="75"/>
-      <c r="M262" s="12" t="s">
+    <row r="262" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C262" s="64"/>
+      <c r="D262" s="65"/>
+      <c r="E262" s="64"/>
+      <c r="F262" s="68"/>
+      <c r="G262" s="68"/>
+      <c r="H262" s="68"/>
+      <c r="M262" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="N262" s="12" t="s">
+      <c r="N262" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="263" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D263" s="75"/>
-      <c r="M263" s="12" t="s">
+    <row r="263" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C263" s="64"/>
+      <c r="D263" s="65"/>
+      <c r="E263" s="64"/>
+      <c r="F263" s="68"/>
+      <c r="G263" s="68"/>
+      <c r="H263" s="68"/>
+      <c r="M263" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="N263" s="12" t="s">
+      <c r="N263" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="264" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D264" s="75"/>
-      <c r="M264" s="12" t="s">
+    <row r="264" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C264" s="64"/>
+      <c r="D264" s="65"/>
+      <c r="E264" s="64"/>
+      <c r="F264" s="68"/>
+      <c r="G264" s="68"/>
+      <c r="H264" s="68"/>
+      <c r="M264" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="N264" s="12" t="s">
+      <c r="N264" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="265" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D265" s="75"/>
-      <c r="M265" s="12" t="s">
+    <row r="265" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C265" s="64"/>
+      <c r="D265" s="65"/>
+      <c r="E265" s="64"/>
+      <c r="F265" s="68"/>
+      <c r="G265" s="68"/>
+      <c r="H265" s="68"/>
+      <c r="M265" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="N265" s="12" t="s">
+      <c r="N265" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="266" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D266" s="75"/>
-      <c r="M266" s="12" t="s">
+    <row r="266" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C266" s="64"/>
+      <c r="D266" s="65"/>
+      <c r="E266" s="64"/>
+      <c r="F266" s="68"/>
+      <c r="G266" s="68"/>
+      <c r="H266" s="68"/>
+      <c r="M266" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="N266" s="12" t="s">
+      <c r="N266" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="267" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D267" s="75"/>
-      <c r="M267" s="12" t="s">
+    <row r="267" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C267" s="64"/>
+      <c r="D267" s="65"/>
+      <c r="E267" s="64"/>
+      <c r="F267" s="68"/>
+      <c r="G267" s="68"/>
+      <c r="H267" s="68"/>
+      <c r="M267" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="N267" s="12" t="s">
+      <c r="N267" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="268" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D268" s="75"/>
-      <c r="M268" s="12" t="s">
+    <row r="268" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C268" s="64"/>
+      <c r="D268" s="65"/>
+      <c r="E268" s="64"/>
+      <c r="F268" s="68"/>
+      <c r="G268" s="68"/>
+      <c r="H268" s="68"/>
+      <c r="M268" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="N268" s="12" t="s">
+      <c r="N268" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="269" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D269" s="75"/>
-      <c r="M269" s="12" t="s">
+    <row r="269" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C269" s="64"/>
+      <c r="D269" s="65"/>
+      <c r="E269" s="64"/>
+      <c r="F269" s="68"/>
+      <c r="G269" s="68"/>
+      <c r="H269" s="68"/>
+      <c r="M269" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="N269" s="12" t="s">
+      <c r="N269" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="270" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D270" s="75"/>
-      <c r="M270" s="12" t="s">
+    <row r="270" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C270" s="64"/>
+      <c r="D270" s="65"/>
+      <c r="E270" s="64"/>
+      <c r="F270" s="68"/>
+      <c r="G270" s="68"/>
+      <c r="H270" s="68"/>
+      <c r="M270" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="N270" s="12" t="s">
+      <c r="N270" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="271" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D271" s="75"/>
-      <c r="M271" s="12" t="s">
+    <row r="271" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C271" s="64"/>
+      <c r="D271" s="65"/>
+      <c r="E271" s="64"/>
+      <c r="F271" s="68"/>
+      <c r="G271" s="68"/>
+      <c r="H271" s="68"/>
+      <c r="M271" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="N271" s="12" t="s">
+      <c r="N271" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="272" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D272" s="75"/>
-      <c r="M272" s="12" t="s">
+    <row r="272" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C272" s="64"/>
+      <c r="D272" s="65"/>
+      <c r="E272" s="64"/>
+      <c r="F272" s="68"/>
+      <c r="G272" s="68"/>
+      <c r="H272" s="68"/>
+      <c r="M272" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="N272" s="12" t="s">
+      <c r="N272" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="273" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D273" s="75"/>
-      <c r="M273" s="12" t="s">
+    <row r="273" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C273" s="64"/>
+      <c r="D273" s="65"/>
+      <c r="E273" s="64"/>
+      <c r="F273" s="68"/>
+      <c r="G273" s="68"/>
+      <c r="H273" s="68"/>
+      <c r="M273" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="N273" s="12" t="s">
+      <c r="N273" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="274" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D274" s="75"/>
-      <c r="M274" s="12" t="s">
+    <row r="274" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C274" s="64"/>
+      <c r="D274" s="65"/>
+      <c r="E274" s="64"/>
+      <c r="F274" s="68"/>
+      <c r="G274" s="68"/>
+      <c r="H274" s="68"/>
+      <c r="M274" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="N274" s="12" t="s">
+      <c r="N274" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="275" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D275" s="75"/>
-      <c r="M275" s="12" t="s">
+    <row r="275" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C275" s="64"/>
+      <c r="D275" s="65"/>
+      <c r="E275" s="64"/>
+      <c r="F275" s="68"/>
+      <c r="G275" s="68"/>
+      <c r="H275" s="68"/>
+      <c r="M275" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="N275" s="12" t="s">
+      <c r="N275" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="276" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D276" s="75"/>
-    </row>
-    <row r="277" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D277" s="75"/>
-      <c r="M277" s="12" t="s">
+    <row r="276" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C276" s="64"/>
+      <c r="D276" s="65"/>
+      <c r="E276" s="64"/>
+      <c r="F276" s="68"/>
+      <c r="G276" s="68"/>
+      <c r="H276" s="68"/>
+    </row>
+    <row r="277" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C277" s="64"/>
+      <c r="D277" s="65"/>
+      <c r="E277" s="64"/>
+      <c r="F277" s="68"/>
+      <c r="G277" s="68"/>
+      <c r="H277" s="68"/>
+      <c r="M277" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="N277" s="12" t="s">
+      <c r="N277" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="278" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D278" s="75"/>
-      <c r="M278" s="12" t="s">
+    <row r="278" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C278" s="64"/>
+      <c r="D278" s="65"/>
+      <c r="E278" s="64"/>
+      <c r="F278" s="68"/>
+      <c r="G278" s="68"/>
+      <c r="H278" s="68"/>
+      <c r="M278" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="N278" s="12" t="s">
+      <c r="N278" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="279" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D279" s="75"/>
-      <c r="M279" s="12" t="s">
+    <row r="279" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C279" s="64"/>
+      <c r="D279" s="65"/>
+      <c r="E279" s="64"/>
+      <c r="F279" s="68"/>
+      <c r="G279" s="68"/>
+      <c r="H279" s="68"/>
+      <c r="M279" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N279" s="12" t="s">
+      <c r="N279" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="280" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D280" s="75"/>
-      <c r="M280" s="12" t="s">
+    <row r="280" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C280" s="64"/>
+      <c r="D280" s="65"/>
+      <c r="E280" s="64"/>
+      <c r="F280" s="68"/>
+      <c r="G280" s="68"/>
+      <c r="H280" s="68"/>
+      <c r="M280" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="N280" s="12" t="s">
+      <c r="N280" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="281" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D281" s="75"/>
-      <c r="M281" s="12" t="s">
+    <row r="281" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C281" s="64"/>
+      <c r="D281" s="65"/>
+      <c r="E281" s="64"/>
+      <c r="F281" s="68"/>
+      <c r="G281" s="68"/>
+      <c r="H281" s="68"/>
+      <c r="M281" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="N281" s="12" t="s">
+      <c r="N281" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="282" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D282" s="75"/>
-      <c r="M282" s="12" t="s">
+    <row r="282" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C282" s="64"/>
+      <c r="D282" s="65"/>
+      <c r="E282" s="64"/>
+      <c r="F282" s="68"/>
+      <c r="G282" s="68"/>
+      <c r="H282" s="68"/>
+      <c r="M282" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="N282" s="12" t="s">
+      <c r="N282" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="283" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D283" s="75"/>
-      <c r="M283" s="12" t="s">
+    <row r="283" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C283" s="64"/>
+      <c r="D283" s="65"/>
+      <c r="E283" s="64"/>
+      <c r="F283" s="68"/>
+      <c r="G283" s="68"/>
+      <c r="H283" s="68"/>
+      <c r="M283" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="N283" s="12" t="s">
+      <c r="N283" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="284" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D284" s="75"/>
-      <c r="M284" s="12" t="s">
+    <row r="284" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C284" s="64"/>
+      <c r="D284" s="65"/>
+      <c r="E284" s="64"/>
+      <c r="F284" s="68"/>
+      <c r="G284" s="68"/>
+      <c r="H284" s="68"/>
+      <c r="M284" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="N284" s="12" t="s">
+      <c r="N284" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="285" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D285" s="75"/>
-      <c r="M285" s="12" t="s">
+    <row r="285" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C285" s="64"/>
+      <c r="D285" s="65"/>
+      <c r="E285" s="64"/>
+      <c r="F285" s="68"/>
+      <c r="G285" s="68"/>
+      <c r="H285" s="68"/>
+      <c r="M285" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="N285" s="12" t="s">
+      <c r="N285" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="286" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D286" s="75"/>
-      <c r="M286" s="12" t="s">
+    <row r="286" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C286" s="64"/>
+      <c r="D286" s="65"/>
+      <c r="E286" s="64"/>
+      <c r="F286" s="68"/>
+      <c r="G286" s="68"/>
+      <c r="H286" s="68"/>
+      <c r="M286" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="N286" s="12" t="s">
+      <c r="N286" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="287" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D287" s="75"/>
-      <c r="M287" s="12" t="s">
+    <row r="287" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C287" s="64"/>
+      <c r="D287" s="65"/>
+      <c r="E287" s="64"/>
+      <c r="F287" s="68"/>
+      <c r="G287" s="68"/>
+      <c r="H287" s="68"/>
+      <c r="M287" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="N287" s="12" t="s">
+      <c r="N287" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="288" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D288" s="75"/>
-      <c r="M288" s="12" t="s">
+    <row r="288" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C288" s="64"/>
+      <c r="D288" s="65"/>
+      <c r="E288" s="64"/>
+      <c r="F288" s="68"/>
+      <c r="G288" s="68"/>
+      <c r="H288" s="68"/>
+      <c r="M288" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="N288" s="12" t="s">
+      <c r="N288" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="289" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D289" s="75"/>
-      <c r="M289" s="12" t="s">
+    <row r="289" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C289" s="64"/>
+      <c r="D289" s="65"/>
+      <c r="E289" s="64"/>
+      <c r="F289" s="68"/>
+      <c r="G289" s="68"/>
+      <c r="H289" s="68"/>
+      <c r="M289" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="N289" s="12" t="s">
+      <c r="N289" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="290" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D290" s="75"/>
-      <c r="M290" s="12" t="s">
+    <row r="290" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C290" s="64"/>
+      <c r="D290" s="65"/>
+      <c r="E290" s="64"/>
+      <c r="F290" s="68"/>
+      <c r="G290" s="68"/>
+      <c r="H290" s="68"/>
+      <c r="M290" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="N290" s="12" t="s">
+      <c r="N290" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="291" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D291" s="75"/>
-      <c r="M291" s="12" t="s">
+    <row r="291" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C291" s="64"/>
+      <c r="D291" s="65"/>
+      <c r="E291" s="64"/>
+      <c r="F291" s="68"/>
+      <c r="G291" s="68"/>
+      <c r="H291" s="68"/>
+      <c r="M291" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="N291" s="12" t="s">
+      <c r="N291" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="292" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D292" s="75"/>
-      <c r="M292" s="12" t="s">
+    <row r="292" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C292" s="64"/>
+      <c r="D292" s="65"/>
+      <c r="E292" s="64"/>
+      <c r="F292" s="68"/>
+      <c r="G292" s="68"/>
+      <c r="H292" s="68"/>
+      <c r="M292" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="N292" s="12" t="s">
+      <c r="N292" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="293" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D293" s="75"/>
-      <c r="M293" s="12" t="s">
+    <row r="293" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C293" s="64"/>
+      <c r="D293" s="65"/>
+      <c r="E293" s="64"/>
+      <c r="F293" s="68"/>
+      <c r="G293" s="68"/>
+      <c r="H293" s="68"/>
+      <c r="M293" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="N293" s="12" t="s">
+      <c r="N293" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="294" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D294" s="75"/>
-      <c r="M294" s="12" t="s">
+    <row r="294" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C294" s="64"/>
+      <c r="D294" s="65"/>
+      <c r="E294" s="64"/>
+      <c r="F294" s="68"/>
+      <c r="G294" s="68"/>
+      <c r="H294" s="68"/>
+      <c r="M294" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="N294" s="12" t="s">
+      <c r="N294" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="295" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D295" s="75"/>
-      <c r="M295" s="12" t="s">
+    <row r="295" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C295" s="64"/>
+      <c r="D295" s="65"/>
+      <c r="E295" s="64"/>
+      <c r="F295" s="68"/>
+      <c r="G295" s="68"/>
+      <c r="H295" s="68"/>
+      <c r="M295" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="N295" s="12" t="s">
+      <c r="N295" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="296" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D296" s="75"/>
-      <c r="M296" s="12" t="s">
+    <row r="296" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C296" s="64"/>
+      <c r="D296" s="65"/>
+      <c r="E296" s="64"/>
+      <c r="F296" s="68"/>
+      <c r="G296" s="68"/>
+      <c r="H296" s="68"/>
+      <c r="M296" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="N296" s="12" t="s">
+      <c r="N296" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="297" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D297" s="75"/>
-      <c r="M297" s="12" t="s">
+    <row r="297" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C297" s="64"/>
+      <c r="D297" s="65"/>
+      <c r="E297" s="64"/>
+      <c r="F297" s="68"/>
+      <c r="G297" s="68"/>
+      <c r="H297" s="68"/>
+      <c r="M297" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="N297" s="12" t="s">
+      <c r="N297" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D298" s="75"/>
-      <c r="M298" s="12" t="s">
+    <row r="298" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C298" s="64"/>
+      <c r="D298" s="65"/>
+      <c r="E298" s="64"/>
+      <c r="F298" s="68"/>
+      <c r="G298" s="68"/>
+      <c r="H298" s="68"/>
+      <c r="M298" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="N298" s="12" t="s">
+      <c r="N298" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="299" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D299" s="75"/>
-      <c r="M299" s="12" t="s">
+    <row r="299" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C299" s="64"/>
+      <c r="D299" s="65"/>
+      <c r="E299" s="64"/>
+      <c r="F299" s="68"/>
+      <c r="G299" s="68"/>
+      <c r="H299" s="68"/>
+      <c r="M299" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="N299" s="12" t="s">
+      <c r="N299" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="300" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D300" s="75"/>
-      <c r="M300" s="12" t="s">
+    <row r="300" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C300" s="64"/>
+      <c r="D300" s="65"/>
+      <c r="E300" s="64"/>
+      <c r="F300" s="68"/>
+      <c r="G300" s="68"/>
+      <c r="H300" s="68"/>
+      <c r="M300" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="N300" s="12" t="s">
+      <c r="N300" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="301" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D301" s="75"/>
-      <c r="M301" s="12" t="s">
+    <row r="301" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C301" s="64"/>
+      <c r="D301" s="65"/>
+      <c r="E301" s="64"/>
+      <c r="F301" s="68"/>
+      <c r="G301" s="68"/>
+      <c r="H301" s="68"/>
+      <c r="M301" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="N301" s="12" t="s">
+      <c r="N301" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="302" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D302" s="75"/>
-      <c r="M302" s="12" t="s">
+    <row r="302" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C302" s="64"/>
+      <c r="D302" s="65"/>
+      <c r="E302" s="64"/>
+      <c r="F302" s="68"/>
+      <c r="G302" s="68"/>
+      <c r="H302" s="68"/>
+      <c r="M302" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="N302" s="12" t="s">
+      <c r="N302" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="303" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D303" s="75"/>
-      <c r="M303" s="12" t="s">
+    <row r="303" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C303" s="64"/>
+      <c r="D303" s="65"/>
+      <c r="E303" s="64"/>
+      <c r="F303" s="68"/>
+      <c r="G303" s="68"/>
+      <c r="H303" s="68"/>
+      <c r="M303" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="N303" s="12" t="s">
+      <c r="N303" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="304" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D304" s="75"/>
-      <c r="M304" s="12" t="s">
+    <row r="304" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C304" s="64"/>
+      <c r="D304" s="65"/>
+      <c r="E304" s="64"/>
+      <c r="F304" s="68"/>
+      <c r="G304" s="68"/>
+      <c r="H304" s="68"/>
+      <c r="M304" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="N304" s="12" t="s">
+      <c r="N304" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="305" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D305" s="75"/>
-      <c r="M305" s="12" t="s">
+    <row r="305" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C305" s="64"/>
+      <c r="D305" s="65"/>
+      <c r="E305" s="64"/>
+      <c r="F305" s="68"/>
+      <c r="G305" s="68"/>
+      <c r="H305" s="68"/>
+      <c r="M305" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="N305" s="12" t="s">
+      <c r="N305" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="306" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D306" s="75"/>
-      <c r="M306" s="12" t="s">
+    <row r="306" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C306" s="64"/>
+      <c r="D306" s="65"/>
+      <c r="E306" s="64"/>
+      <c r="F306" s="68"/>
+      <c r="G306" s="68"/>
+      <c r="H306" s="68"/>
+      <c r="M306" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="N306" s="12" t="s">
+      <c r="N306" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="307" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D307" s="75"/>
-      <c r="M307" s="12" t="s">
+    <row r="307" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C307" s="64"/>
+      <c r="D307" s="65"/>
+      <c r="E307" s="64"/>
+      <c r="F307" s="68"/>
+      <c r="G307" s="68"/>
+      <c r="H307" s="68"/>
+      <c r="M307" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="N307" s="12" t="s">
+      <c r="N307" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="308" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D308" s="75"/>
-      <c r="M308" s="12" t="s">
+    <row r="308" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C308" s="64"/>
+      <c r="D308" s="65"/>
+      <c r="E308" s="64"/>
+      <c r="F308" s="68"/>
+      <c r="G308" s="68"/>
+      <c r="H308" s="68"/>
+      <c r="M308" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="N308" s="12" t="s">
+      <c r="N308" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="309" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D309" s="75"/>
-      <c r="M309" s="12" t="s">
+    <row r="309" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C309" s="64"/>
+      <c r="D309" s="65"/>
+      <c r="E309" s="64"/>
+      <c r="F309" s="68"/>
+      <c r="G309" s="68"/>
+      <c r="H309" s="68"/>
+      <c r="M309" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="N309" s="12" t="s">
+      <c r="N309" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="310" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D310" s="75"/>
-      <c r="M310" s="12" t="s">
+    <row r="310" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C310" s="64"/>
+      <c r="D310" s="65"/>
+      <c r="E310" s="64"/>
+      <c r="F310" s="68"/>
+      <c r="G310" s="68"/>
+      <c r="H310" s="68"/>
+      <c r="M310" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="N310" s="12" t="s">
+      <c r="N310" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="311" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D311" s="75"/>
-      <c r="M311" s="12" t="s">
+    <row r="311" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C311" s="64"/>
+      <c r="D311" s="65"/>
+      <c r="E311" s="64"/>
+      <c r="F311" s="68"/>
+      <c r="G311" s="68"/>
+      <c r="H311" s="68"/>
+      <c r="M311" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="N311" s="12" t="s">
+      <c r="N311" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="312" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D312" s="75"/>
-      <c r="M312" s="12" t="s">
+    <row r="312" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C312" s="64"/>
+      <c r="D312" s="65"/>
+      <c r="E312" s="64"/>
+      <c r="F312" s="68"/>
+      <c r="G312" s="68"/>
+      <c r="H312" s="68"/>
+      <c r="M312" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="N312" s="12" t="s">
+      <c r="N312" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="313" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D313" s="75"/>
-      <c r="M313" s="12" t="s">
+    <row r="313" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C313" s="64"/>
+      <c r="D313" s="65"/>
+      <c r="E313" s="64"/>
+      <c r="F313" s="68"/>
+      <c r="G313" s="68"/>
+      <c r="H313" s="68"/>
+      <c r="M313" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="N313" s="12" t="s">
+      <c r="N313" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="314" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D314" s="75"/>
-      <c r="M314" s="12" t="s">
+    <row r="314" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C314" s="64"/>
+      <c r="D314" s="65"/>
+      <c r="E314" s="64"/>
+      <c r="F314" s="68"/>
+      <c r="G314" s="68"/>
+      <c r="H314" s="68"/>
+      <c r="M314" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="N314" s="12" t="s">
+      <c r="N314" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="315" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D315" s="75"/>
-      <c r="M315" s="12" t="s">
+    <row r="315" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C315" s="64"/>
+      <c r="D315" s="65"/>
+      <c r="E315" s="64"/>
+      <c r="F315" s="68"/>
+      <c r="G315" s="68"/>
+      <c r="H315" s="68"/>
+      <c r="M315" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="N315" s="12" t="s">
+      <c r="N315" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="316" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D316" s="75"/>
-      <c r="M316" s="12" t="s">
+    <row r="316" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C316" s="64"/>
+      <c r="D316" s="65"/>
+      <c r="E316" s="64"/>
+      <c r="F316" s="68"/>
+      <c r="G316" s="68"/>
+      <c r="H316" s="68"/>
+      <c r="M316" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="N316" s="12" t="s">
+      <c r="N316" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="317" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D317" s="75"/>
-      <c r="M317" s="12" t="s">
+    <row r="317" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C317" s="64"/>
+      <c r="D317" s="65"/>
+      <c r="E317" s="64"/>
+      <c r="F317" s="68"/>
+      <c r="G317" s="68"/>
+      <c r="H317" s="68"/>
+      <c r="M317" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="N317" s="12" t="s">
+      <c r="N317" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="318" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D318" s="75"/>
-      <c r="M318" s="12" t="s">
+    <row r="318" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C318" s="64"/>
+      <c r="D318" s="65"/>
+      <c r="E318" s="64"/>
+      <c r="F318" s="68"/>
+      <c r="G318" s="68"/>
+      <c r="H318" s="68"/>
+      <c r="M318" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="N318" s="12" t="s">
+      <c r="N318" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="319" spans="4:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="3:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C319" s="64"/>
+      <c r="D319" s="64"/>
+      <c r="E319" s="64"/>
+      <c r="F319" s="68"/>
+      <c r="G319" s="68"/>
+      <c r="H319" s="68"/>
+    </row>
+    <row r="320" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C320" s="64"/>
+      <c r="D320" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="E320" s="64"/>
+      <c r="F320" s="68"/>
+      <c r="G320" s="62" t="s">
+        <v>549</v>
+      </c>
+      <c r="H320" s="68"/>
+    </row>
     <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="322" ht="0.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="323" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6477,29 +7919,29 @@
     <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="B17:I18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="B26:F29"/>
     <mergeCell ref="B31:H31"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="B17:I18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>